--- a/Excel/작업Spell.xlsx
+++ b/Excel/작업Spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6EC55-CE77-4779-B032-A41E6F3149F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C92E5-29C5-48B2-B10C-906535DFE2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0961E6A-C346-4EA6-BF79-58AB62DAFDEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0961E6A-C346-4EA6-BF79-58AB62DAFDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="SpellGradeLevelTable" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,96 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{003AF989-A7D8-44A2-9C6B-A4F4DBEDE991}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레벨의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +171,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2B788-C7F2-40D3-9BEA-DC893AFE6AEA}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5604,14 +5707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929AA82-B9E8-461D-A49D-4486D17AB555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929AA82-B9E8-461D-A49D-4486D17AB555}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5638,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5655,7 +5758,6 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">B2+1</f>
         <v>101</v>
       </c>
       <c r="C3">
@@ -5674,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B66" si="0">B3+1</f>
         <v>102</v>
       </c>
       <c r="C4">
@@ -5737,7 +5839,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>B6+1</f>
         <v>105</v>
       </c>
       <c r="C7">
@@ -7730,5 +7832,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Spell.xlsx
+++ b/Excel/작업Spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BDA6F-4BAA-4F14-A5FD-26CD249D709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5DF2AE-CAD4-41F9-B5C4-C2AA5DD099F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0961E6A-C346-4EA6-BF79-58AB62DAFDEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0961E6A-C346-4EA6-BF79-58AB62DAFDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="SpellGradeLevelTable" sheetId="1" r:id="rId1"/>
@@ -579,11 +579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2B788-C7F2-40D3-9BEA-DC893AFE6AEA}">
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -691,9 +691,9 @@
         <v>"0_1":[0</v>
       </c>
       <c r="I2" t="str">
-        <f ca="1">IF(C2&lt;OFFSET(C2,-1,0),""""&amp;A2&amp;"_"&amp;B2&amp;""":["&amp;E2,
-IF(C2&gt;OFFSET(C2,1,0),E2&amp;"]",
-E2))</f>
+        <f ca="1">IF(C2&lt;OFFSET(C2,-1,0),""""&amp;A2&amp;"_"&amp;B2&amp;""":["&amp;F2,
+IF(C2&gt;OFFSET(C2,1,0),F2&amp;"]",
+F2))</f>
         <v>"0_1":[0</v>
       </c>
       <c r="J2">
@@ -754,7 +754,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(H1,COUNTA(H:H)-1,0),1)=",",SUBSTITUTE(OFFSET(H1,COUNTA(H:H)-1,0),",","",1),OFFSET(H1,COUNTA(H:H)-1,0))
 &amp;"}"</f>
-        <v>{"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19]}</v>
+        <v>{"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171,190]}</v>
       </c>
       <c r="Z2" t="str">
         <f ca="1">"{"&amp;
@@ -792,9 +792,9 @@
         <v>"0_1":[0,15</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" ca="1" si="2">IF(C3&lt;OFFSET(C3,-1,0),""""&amp;A3&amp;"_"&amp;B3&amp;""":["&amp;E3,
-IF(C3&gt;OFFSET(C3,1,0),E3&amp;"]",
-E3))</f>
+        <f t="shared" ref="I3:I66" ca="1" si="2">IF(C3&lt;OFFSET(C3,-1,0),""""&amp;A3&amp;"_"&amp;B3&amp;""":["&amp;F3,
+IF(C3&gt;OFFSET(C3,1,0),F3&amp;"]",
+F3))</f>
         <v>15</v>
       </c>
       <c r="J3">
@@ -878,11 +878,11 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20</v>
+        <v>"0_1":[0,15,35</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20</v>
+        <v>"0_1":[0,15,35</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="7"/>
@@ -940,7 +940,7 @@
 IF(W4=1,"{"&amp;VLOOKUP(W4,L:M,2,0),
 IF(MAX(L:L)=W4,VLOOKUP(W4,L:M,2,0)&amp;"}",
 VLOOKUP(W4,L:M,2,0))))</f>
-        <v>{"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19]</v>
+        <v>{"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171,190]</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -979,11 +979,11 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25</v>
+        <v>"0_1":[0,15,35,60</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25</v>
+        <v>"0_1":[0,15,35,60</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="7"/>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30</v>
+        <v>"0_1":[0,15,35,60,90</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30</v>
+        <v>"0_1":[0,15,35,60,90</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="7"/>
@@ -1176,19 +1176,19 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35</v>
+        <v>"0_1":[0,15,35,60,90,125</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="5"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35</v>
+        <v>"0_1":[0,15,35,60,90,125</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="7"/>
@@ -1271,19 +1271,19 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="5"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="7"/>
@@ -1366,19 +1366,19 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="5"/>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="7"/>
@@ -1461,19 +1461,19 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="5"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="7"/>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="5"/>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="7"/>
@@ -1651,19 +1651,19 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>375</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="5"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="7"/>
@@ -1746,19 +1746,19 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="5"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="7"/>
@@ -1827,19 +1827,19 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>510</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="5"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="7"/>
@@ -1908,19 +1908,19 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>585</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="5"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="7"/>
@@ -1989,19 +1989,19 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="5"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="7"/>
@@ -2070,19 +2070,19 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>750</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="5"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="7"/>
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>840</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="7"/>
@@ -2232,19 +2232,19 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>935</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="5"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="7"/>
@@ -2313,19 +2313,19 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>1035</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="5"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="7"/>
@@ -2394,19 +2394,19 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140]</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>105]</v>
+        <v>1140]</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="5"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140]</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="7"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="5"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="7"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="5"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="7"/>
@@ -2638,11 +2638,11 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="5"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="7"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="5"/>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="7"/>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="5"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="7"/>
@@ -2884,19 +2884,19 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="5"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="7"/>
@@ -2966,19 +2966,19 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="5"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="7"/>
@@ -3048,19 +3048,19 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="5"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="7"/>
@@ -3130,19 +3130,19 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="5"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="7"/>
@@ -3212,19 +3212,19 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="4"/>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="5"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="7"/>
@@ -3294,19 +3294,19 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="4"/>
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="5"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="7"/>
@@ -3376,19 +3376,19 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>374</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="4"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="5"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="7"/>
@@ -3458,19 +3458,19 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="5"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="7"/>
@@ -3540,19 +3540,19 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>494</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="5"/>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="7"/>
@@ -3622,19 +3622,19 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>560</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="4"/>
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="5"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="7"/>
@@ -3704,19 +3704,19 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="5"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="7"/>
@@ -3786,19 +3786,19 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>704</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="5"/>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="7"/>
@@ -3868,19 +3868,19 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>782</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="5"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="7"/>
@@ -3950,19 +3950,19 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>864</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="5"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="7"/>
@@ -4032,19 +4032,19 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950]</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>86]</v>
+        <v>950]</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="5"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950]</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="7"/>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="4"/>
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="5"/>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="7"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="2"/>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="5"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="7"/>
@@ -4276,11 +4276,11 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="5"/>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="7"/>
@@ -4358,11 +4358,11 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="5"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="7"/>
@@ -4440,11 +4440,11 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="5"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="7"/>
@@ -4522,11 +4522,11 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="5"/>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="7"/>
@@ -4604,19 +4604,19 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="5"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="7"/>
@@ -4686,19 +4686,19 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="5"/>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="7"/>
@@ -4768,19 +4768,19 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="5"/>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="7"/>
@@ -4850,19 +4850,19 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="4"/>
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="5"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="7"/>
@@ -4932,19 +4932,19 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="5"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="7"/>
@@ -5014,19 +5014,19 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="5"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="7"/>
@@ -5096,19 +5096,19 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="5"/>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="7"/>
@@ -5178,19 +5178,19 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>403</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="5"/>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="7"/>
@@ -5260,19 +5260,19 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>455</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="7"/>
@@ -5342,19 +5342,19 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>510</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="7"/>
@@ -5424,19 +5424,19 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>568</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="7"/>
@@ -5506,19 +5506,19 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>629</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="7"/>
@@ -5588,19 +5588,19 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>693</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="7"/>
@@ -5670,19 +5670,19 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760]</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>67]</v>
+        <v>760]</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760]</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="7"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="7"/>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="2"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="5"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="7"/>
@@ -5914,11 +5914,11 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="3"/>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="5"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="7"/>
@@ -5996,11 +5996,11 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="3"/>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="4"/>
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="5"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="7"/>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="3"/>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="5"/>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="7"/>
@@ -6160,13 +6160,13 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" ca="1" si="26">IF(ROW()=2,I67,OFFSET(H67,-1,0)&amp;IF(LEN(I67)=0,"",","&amp;I67))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" ca="1" si="27">IF(C67&lt;OFFSET(C67,-1,0),""""&amp;A67&amp;"_"&amp;B67&amp;""":["&amp;E67,
-IF(C67&gt;OFFSET(C67,1,0),E67&amp;"]",
-E67))</f>
-        <v>20</v>
+        <f t="shared" ref="I67:I130" ca="1" si="27">IF(C67&lt;OFFSET(C67,-1,0),""""&amp;A67&amp;"_"&amp;B67&amp;""":["&amp;F67,
+IF(C67&gt;OFFSET(C67,1,0),F67&amp;"]",
+F67))</f>
+        <v>80</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" ca="1" si="28">LEN(I67)</f>
@@ -6175,7 +6175,7 @@
       <c r="K67">
         <f t="shared" ref="K67:K130" ca="1" si="29">IF(ROW()=2,J67,
 IF(OFFSET(K67,-1,0)+J67+1&gt;32767,J67+1,OFFSET(K67,-1,0)+J67+1))</f>
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" ca="1" si="30">IF(ROW()=2,N67,OFFSET(L67,-1,0)+N67)</f>
@@ -6184,7 +6184,7 @@
       <c r="M67" t="str">
         <f t="shared" ref="M67:M130" ca="1" si="31">IF(ROW()=2,I67,
 IF(OFFSET(K67,-1,0)+J67+1&gt;32767,","&amp;I67,OFFSET(M67,-1,0)&amp;IF(LEN(I67)=0,"",","&amp;I67)))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" ca="1" si="32">IF(K67&gt;OFFSET(K67,1,0),1,0)</f>
@@ -6249,19 +6249,19 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="27"/>
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="29"/>
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="30"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="32"/>
@@ -6331,19 +6331,19 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="27"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="29"/>
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="30"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="32"/>
@@ -6413,19 +6413,19 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="27"/>
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="29"/>
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="30"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="32"/>
@@ -6496,19 +6496,19 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="27"/>
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="29"/>
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="30"/>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="32"/>
@@ -6578,19 +6578,19 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="27"/>
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="29"/>
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="30"/>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="32"/>
@@ -6660,19 +6660,19 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="27"/>
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="29"/>
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="30"/>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="32"/>
@@ -6742,19 +6742,19 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="27"/>
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="29"/>
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="30"/>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="32"/>
@@ -6824,19 +6824,19 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="27"/>
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="29"/>
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="30"/>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="32"/>
@@ -6906,19 +6906,19 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="27"/>
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="29"/>
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="30"/>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="32"/>
@@ -6988,19 +6988,19 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="27"/>
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="29"/>
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="30"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="32"/>
@@ -7070,19 +7070,19 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="27"/>
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="29"/>
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="30"/>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432</v>
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="32"/>
@@ -7152,19 +7152,19 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="27"/>
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="29"/>
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="30"/>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="32"/>
@@ -7234,19 +7234,19 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="27"/>
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="29"/>
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="30"/>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="32"/>
@@ -7316,19 +7316,19 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570]</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>48]</v>
+        <v>570]</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="29"/>
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="30"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570]</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="32"/>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="29"/>
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="30"/>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="32"/>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="27"/>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="29"/>
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="30"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="32"/>
@@ -7560,11 +7560,11 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="28"/>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="29"/>
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="30"/>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="32"/>
@@ -7642,11 +7642,11 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="27"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="28"/>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="29"/>
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="30"/>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="32"/>
@@ -7724,11 +7724,11 @@
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="27"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="28"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="29"/>
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="30"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="32"/>
@@ -7806,11 +7806,11 @@
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="28"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="29"/>
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="30"/>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="32"/>
@@ -7888,11 +7888,11 @@
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="27"/>
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="28"/>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="29"/>
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="30"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="32"/>
@@ -7970,11 +7970,11 @@
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="27"/>
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="28"/>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="29"/>
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="30"/>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="32"/>
@@ -8052,19 +8052,19 @@
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="27"/>
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="29"/>
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="30"/>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="32"/>
@@ -8134,19 +8134,19 @@
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="27"/>
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="29"/>
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="30"/>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="32"/>
@@ -8216,19 +8216,19 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="27"/>
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="29"/>
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="30"/>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="32"/>
@@ -8298,19 +8298,19 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="27"/>
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="29"/>
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="30"/>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="32"/>
@@ -8380,19 +8380,19 @@
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="27"/>
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="29"/>
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="30"/>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="32"/>
@@ -8462,19 +8462,19 @@
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="27"/>
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="29"/>
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="30"/>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="32"/>
@@ -8544,19 +8544,19 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="27"/>
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="29"/>
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="30"/>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="32"/>
@@ -8626,19 +8626,19 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="27"/>
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="29"/>
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="30"/>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="32"/>
@@ -8708,19 +8708,19 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="27"/>
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="29"/>
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="30"/>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="32"/>
@@ -8790,19 +8790,19 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="27"/>
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="29"/>
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="30"/>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="32"/>
@@ -8872,19 +8872,19 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="27"/>
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="29"/>
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="30"/>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="M100" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="32"/>
@@ -8954,19 +8954,19 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380]</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>29]</v>
+        <v>380]</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="29"/>
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="30"/>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="M101" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380]</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="32"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="H102" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="29"/>
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="30"/>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="32"/>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="H103" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5</v>
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="27"/>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="29"/>
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="30"/>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="32"/>
@@ -9195,11 +9195,11 @@
       </c>
       <c r="H104" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="27"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="28"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="29"/>
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="30"/>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="32"/>
@@ -9276,11 +9276,11 @@
       </c>
       <c r="H105" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="27"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="28"/>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="29"/>
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="30"/>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="32"/>
@@ -9357,11 +9357,11 @@
       </c>
       <c r="H106" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="27"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="28"/>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="29"/>
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="30"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="32"/>
@@ -9438,11 +9438,11 @@
       </c>
       <c r="H107" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75</v>
       </c>
       <c r="I107">
         <f t="shared" ca="1" si="27"/>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="28"/>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="29"/>
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="30"/>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="32"/>
@@ -9519,19 +9519,19 @@
       </c>
       <c r="H108" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="27"/>
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="29"/>
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="30"/>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="32"/>
@@ -9600,19 +9600,19 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140</v>
       </c>
       <c r="I109">
         <f t="shared" ca="1" si="27"/>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="29"/>
-        <v>365</v>
+        <v>437</v>
       </c>
       <c r="L109">
         <f t="shared" ca="1" si="30"/>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="M109" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="32"/>
@@ -9681,19 +9681,19 @@
       </c>
       <c r="H110" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180</v>
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="27"/>
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="29"/>
-        <v>368</v>
+        <v>441</v>
       </c>
       <c r="L110">
         <f t="shared" ca="1" si="30"/>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="32"/>
@@ -9762,19 +9762,19 @@
       </c>
       <c r="H111" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225</v>
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="27"/>
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="29"/>
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="L111">
         <f t="shared" ca="1" si="30"/>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="32"/>
@@ -9843,19 +9843,19 @@
       </c>
       <c r="H112" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275</v>
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="27"/>
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="29"/>
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="L112">
         <f t="shared" ca="1" si="30"/>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="32"/>
@@ -9924,19 +9924,19 @@
       </c>
       <c r="H113" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330</v>
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="27"/>
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="29"/>
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="L113">
         <f t="shared" ca="1" si="30"/>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330</v>
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="32"/>
@@ -10005,19 +10005,19 @@
       </c>
       <c r="H114" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390</v>
       </c>
       <c r="I114">
         <f t="shared" ca="1" si="27"/>
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="29"/>
-        <v>380</v>
+        <v>457</v>
       </c>
       <c r="L114">
         <f t="shared" ca="1" si="30"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390</v>
       </c>
       <c r="N114">
         <f t="shared" ca="1" si="32"/>
@@ -10086,19 +10086,19 @@
       </c>
       <c r="H115" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="27"/>
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="29"/>
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="L115">
         <f t="shared" ca="1" si="30"/>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455</v>
       </c>
       <c r="N115">
         <f t="shared" ca="1" si="32"/>
@@ -10167,19 +10167,19 @@
       </c>
       <c r="H116" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525</v>
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="27"/>
-        <v>70</v>
+        <v>525</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="29"/>
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="L116">
         <f t="shared" ca="1" si="30"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525</v>
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="32"/>
@@ -10248,19 +10248,19 @@
       </c>
       <c r="H117" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600</v>
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="27"/>
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="29"/>
-        <v>389</v>
+        <v>469</v>
       </c>
       <c r="L117">
         <f t="shared" ca="1" si="30"/>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600</v>
       </c>
       <c r="N117">
         <f t="shared" ca="1" si="32"/>
@@ -10329,19 +10329,19 @@
       </c>
       <c r="H118" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680</v>
       </c>
       <c r="I118">
         <f t="shared" ca="1" si="27"/>
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="29"/>
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="L118">
         <f t="shared" ca="1" si="30"/>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680</v>
       </c>
       <c r="N118">
         <f t="shared" ca="1" si="32"/>
@@ -10410,19 +10410,19 @@
       </c>
       <c r="H119" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="27"/>
-        <v>85</v>
+        <v>765</v>
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="29"/>
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="L119">
         <f t="shared" ca="1" si="30"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765</v>
       </c>
       <c r="N119">
         <f t="shared" ca="1" si="32"/>
@@ -10491,19 +10491,19 @@
       </c>
       <c r="H120" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="27"/>
-        <v>90</v>
+        <v>855</v>
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="29"/>
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="L120">
         <f t="shared" ca="1" si="30"/>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855</v>
       </c>
       <c r="N120">
         <f t="shared" ca="1" si="32"/>
@@ -10572,19 +10572,19 @@
       </c>
       <c r="H121" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950]</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>95]</v>
+        <v>950]</v>
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="29"/>
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="L121">
         <f t="shared" ca="1" si="30"/>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950]</v>
       </c>
       <c r="N121">
         <f t="shared" ca="1" si="32"/>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="H122" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" ca="1" si="27"/>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="29"/>
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="L122">
         <f t="shared" ca="1" si="30"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0</v>
       </c>
       <c r="N122">
         <f t="shared" ca="1" si="32"/>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="H123" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4</v>
       </c>
       <c r="I123">
         <f t="shared" ca="1" si="27"/>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="29"/>
-        <v>413</v>
+        <v>497</v>
       </c>
       <c r="L123">
         <f t="shared" ca="1" si="30"/>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4</v>
       </c>
       <c r="N123">
         <f t="shared" ca="1" si="32"/>
@@ -10816,19 +10816,19 @@
       </c>
       <c r="H124" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="27"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="29"/>
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="L124">
         <f t="shared" ca="1" si="30"/>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12</v>
       </c>
       <c r="N124">
         <f t="shared" ca="1" si="32"/>
@@ -10898,11 +10898,11 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24</v>
       </c>
       <c r="I125">
         <f t="shared" ca="1" si="27"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="28"/>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="29"/>
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="L125">
         <f t="shared" ca="1" si="30"/>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="M125" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24</v>
       </c>
       <c r="N125">
         <f t="shared" ca="1" si="32"/>
@@ -10980,11 +10980,11 @@
       </c>
       <c r="H126" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="27"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="28"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="29"/>
-        <v>421</v>
+        <v>506</v>
       </c>
       <c r="L126">
         <f t="shared" ca="1" si="30"/>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="M126" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40</v>
       </c>
       <c r="N126">
         <f t="shared" ca="1" si="32"/>
@@ -11062,11 +11062,11 @@
       </c>
       <c r="H127" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60</v>
       </c>
       <c r="I127">
         <f t="shared" ca="1" si="27"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="28"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="29"/>
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="L127">
         <f t="shared" ca="1" si="30"/>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="M127" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60</v>
       </c>
       <c r="N127">
         <f t="shared" ca="1" si="32"/>
@@ -11144,11 +11144,11 @@
       </c>
       <c r="H128" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84</v>
       </c>
       <c r="I128">
         <f t="shared" ca="1" si="27"/>
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="28"/>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="29"/>
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="L128">
         <f t="shared" ca="1" si="30"/>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="M128" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84</v>
       </c>
       <c r="N128">
         <f t="shared" ca="1" si="32"/>
@@ -11226,19 +11226,19 @@
       </c>
       <c r="H129" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112</v>
       </c>
       <c r="I129">
         <f t="shared" ca="1" si="27"/>
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="29"/>
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="L129">
         <f t="shared" ca="1" si="30"/>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="M129" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112</v>
       </c>
       <c r="N129">
         <f t="shared" ca="1" si="32"/>
@@ -11308,19 +11308,19 @@
       </c>
       <c r="H130" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144</v>
       </c>
       <c r="I130">
         <f t="shared" ca="1" si="27"/>
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="29"/>
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="L130">
         <f t="shared" ca="1" si="30"/>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="M130" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144</v>
       </c>
       <c r="N130">
         <f t="shared" ca="1" si="32"/>
@@ -11390,22 +11390,22 @@
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H194" ca="1" si="48">IF(ROW()=2,I131,OFFSET(H131,-1,0)&amp;IF(LEN(I131)=0,"",","&amp;I131))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" ca="1" si="49">IF(C131&lt;OFFSET(C131,-1,0),""""&amp;A131&amp;"_"&amp;B131&amp;""":["&amp;E131,
-IF(C131&gt;OFFSET(C131,1,0),E131&amp;"]",
-E131))</f>
-        <v>36</v>
+        <f t="shared" ref="I131:I194" ca="1" si="49">IF(C131&lt;OFFSET(C131,-1,0),""""&amp;A131&amp;"_"&amp;B131&amp;""":["&amp;F131,
+IF(C131&gt;OFFSET(C131,1,0),F131&amp;"]",
+F131))</f>
+        <v>180</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131:J194" ca="1" si="50">LEN(I131)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" ca="1" si="51">IF(ROW()=2,J131,
 IF(OFFSET(K131,-1,0)+J131+1&gt;32767,J131+1,OFFSET(K131,-1,0)+J131+1))</f>
-        <v>436</v>
+        <v>524</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L194" ca="1" si="52">IF(ROW()=2,N131,OFFSET(L131,-1,0)+N131)</f>
@@ -11414,7 +11414,7 @@
       <c r="M131" t="str">
         <f t="shared" ref="M131:M194" ca="1" si="53">IF(ROW()=2,I131,
 IF(OFFSET(K131,-1,0)+J131+1&gt;32767,","&amp;I131,OFFSET(M131,-1,0)&amp;IF(LEN(I131)=0,"",","&amp;I131)))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" ca="1" si="54">IF(K131&gt;OFFSET(K131,1,0),1,0)</f>
@@ -11479,19 +11479,19 @@
       </c>
       <c r="H132" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220</v>
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="49"/>
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="J132">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="51"/>
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="L132">
         <f t="shared" ca="1" si="52"/>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="M132" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220</v>
       </c>
       <c r="N132">
         <f t="shared" ca="1" si="54"/>
@@ -11561,19 +11561,19 @@
       </c>
       <c r="H133" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264</v>
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="49"/>
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="51"/>
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="L133">
         <f t="shared" ca="1" si="52"/>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="M133" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264</v>
       </c>
       <c r="N133">
         <f t="shared" ca="1" si="54"/>
@@ -11643,19 +11643,19 @@
       </c>
       <c r="H134" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="49"/>
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="51"/>
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="L134">
         <f t="shared" ca="1" si="52"/>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="M134" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312</v>
       </c>
       <c r="N134">
         <f t="shared" ca="1" si="54"/>
@@ -11726,19 +11726,19 @@
       </c>
       <c r="H135" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364</v>
       </c>
       <c r="I135">
         <f t="shared" ca="1" si="49"/>
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="51"/>
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="L135">
         <f t="shared" ca="1" si="52"/>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="M135" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364</v>
       </c>
       <c r="N135">
         <f t="shared" ca="1" si="54"/>
@@ -11808,19 +11808,19 @@
       </c>
       <c r="H136" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420</v>
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="49"/>
-        <v>56</v>
+        <v>420</v>
       </c>
       <c r="J136">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="51"/>
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="L136">
         <f t="shared" ca="1" si="52"/>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="M136" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420</v>
       </c>
       <c r="N136">
         <f t="shared" ca="1" si="54"/>
@@ -11890,19 +11890,19 @@
       </c>
       <c r="H137" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480</v>
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="49"/>
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="51"/>
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="L137">
         <f t="shared" ca="1" si="52"/>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="M137" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480</v>
       </c>
       <c r="N137">
         <f t="shared" ca="1" si="54"/>
@@ -11972,19 +11972,19 @@
       </c>
       <c r="H138" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544</v>
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="49"/>
-        <v>64</v>
+        <v>544</v>
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="51"/>
-        <v>457</v>
+        <v>552</v>
       </c>
       <c r="L138">
         <f t="shared" ca="1" si="52"/>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="M138" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544</v>
       </c>
       <c r="N138">
         <f t="shared" ca="1" si="54"/>
@@ -12054,19 +12054,19 @@
       </c>
       <c r="H139" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="49"/>
-        <v>68</v>
+        <v>612</v>
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="51"/>
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="L139">
         <f t="shared" ca="1" si="52"/>
@@ -12074,7 +12074,7 @@
       </c>
       <c r="M139" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612</v>
       </c>
       <c r="N139">
         <f t="shared" ca="1" si="54"/>
@@ -12136,19 +12136,19 @@
       </c>
       <c r="H140" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684</v>
       </c>
       <c r="I140">
         <f t="shared" ca="1" si="49"/>
-        <v>72</v>
+        <v>684</v>
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="51"/>
-        <v>463</v>
+        <v>560</v>
       </c>
       <c r="L140">
         <f t="shared" ca="1" si="52"/>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="M140" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684</v>
       </c>
       <c r="N140">
         <f t="shared" ca="1" si="54"/>
@@ -12218,19 +12218,19 @@
       </c>
       <c r="H141" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760]</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>76]</v>
+        <v>760]</v>
       </c>
       <c r="J141">
         <f t="shared" ca="1" si="50"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="51"/>
-        <v>467</v>
+        <v>565</v>
       </c>
       <c r="L141">
         <f t="shared" ca="1" si="52"/>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="M141" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760]</v>
       </c>
       <c r="N141">
         <f t="shared" ca="1" si="54"/>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="H142" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" ca="1" si="49"/>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="K142">
         <f t="shared" ca="1" si="51"/>
-        <v>476</v>
+        <v>574</v>
       </c>
       <c r="L142">
         <f t="shared" ca="1" si="52"/>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="M142" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0</v>
       </c>
       <c r="N142">
         <f t="shared" ca="1" si="54"/>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="H143" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3</v>
       </c>
       <c r="I143">
         <f t="shared" ca="1" si="49"/>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="K143">
         <f t="shared" ca="1" si="51"/>
-        <v>478</v>
+        <v>576</v>
       </c>
       <c r="L143">
         <f t="shared" ca="1" si="52"/>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="M143" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3</v>
       </c>
       <c r="N143">
         <f t="shared" ca="1" si="54"/>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="H144" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9</v>
       </c>
       <c r="I144">
         <f t="shared" ca="1" si="49"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J144">
         <f t="shared" ca="1" si="50"/>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="51"/>
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="L144">
         <f t="shared" ca="1" si="52"/>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="M144" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9</v>
       </c>
       <c r="N144">
         <f t="shared" ca="1" si="54"/>
@@ -12544,19 +12544,19 @@
       </c>
       <c r="H145" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18</v>
       </c>
       <c r="I145">
         <f t="shared" ca="1" si="49"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J145">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="51"/>
-        <v>482</v>
+        <v>581</v>
       </c>
       <c r="L145">
         <f t="shared" ca="1" si="52"/>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="M145" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18</v>
       </c>
       <c r="N145">
         <f t="shared" ca="1" si="54"/>
@@ -12626,11 +12626,11 @@
       </c>
       <c r="H146" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30</v>
       </c>
       <c r="I146">
         <f t="shared" ca="1" si="49"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J146">
         <f t="shared" ca="1" si="50"/>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="51"/>
-        <v>485</v>
+        <v>584</v>
       </c>
       <c r="L146">
         <f t="shared" ca="1" si="52"/>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="M146" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30</v>
       </c>
       <c r="N146">
         <f t="shared" ca="1" si="54"/>
@@ -12708,11 +12708,11 @@
       </c>
       <c r="H147" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45</v>
       </c>
       <c r="I147">
         <f t="shared" ca="1" si="49"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <f t="shared" ca="1" si="50"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="51"/>
-        <v>488</v>
+        <v>587</v>
       </c>
       <c r="L147">
         <f t="shared" ca="1" si="52"/>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="M147" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45</v>
       </c>
       <c r="N147">
         <f t="shared" ca="1" si="54"/>
@@ -12790,11 +12790,11 @@
       </c>
       <c r="H148" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63</v>
       </c>
       <c r="I148">
         <f t="shared" ca="1" si="49"/>
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="J148">
         <f t="shared" ca="1" si="50"/>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="51"/>
-        <v>491</v>
+        <v>590</v>
       </c>
       <c r="L148">
         <f t="shared" ca="1" si="52"/>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="M148" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63</v>
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="54"/>
@@ -12872,11 +12872,11 @@
       </c>
       <c r="H149" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84</v>
       </c>
       <c r="I149">
         <f t="shared" ca="1" si="49"/>
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="J149">
         <f t="shared" ca="1" si="50"/>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="K149">
         <f t="shared" ca="1" si="51"/>
-        <v>494</v>
+        <v>593</v>
       </c>
       <c r="L149">
         <f t="shared" ca="1" si="52"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="M149" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84</v>
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="54"/>
@@ -12954,19 +12954,19 @@
       </c>
       <c r="H150" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108</v>
       </c>
       <c r="I150">
         <f t="shared" ca="1" si="49"/>
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="51"/>
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="L150">
         <f t="shared" ca="1" si="52"/>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="M150" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="54"/>
@@ -13036,19 +13036,19 @@
       </c>
       <c r="H151" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135</v>
       </c>
       <c r="I151">
         <f t="shared" ca="1" si="49"/>
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="J151">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="51"/>
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="L151">
         <f t="shared" ca="1" si="52"/>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="M151" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135</v>
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="54"/>
@@ -13118,19 +13118,19 @@
       </c>
       <c r="H152" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165</v>
       </c>
       <c r="I152">
         <f t="shared" ca="1" si="49"/>
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="J152">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="51"/>
-        <v>503</v>
+        <v>605</v>
       </c>
       <c r="L152">
         <f t="shared" ca="1" si="52"/>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="M152" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165</v>
       </c>
       <c r="N152">
         <f t="shared" ca="1" si="54"/>
@@ -13200,19 +13200,19 @@
       </c>
       <c r="H153" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198</v>
       </c>
       <c r="I153">
         <f t="shared" ca="1" si="49"/>
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="J153">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="51"/>
-        <v>506</v>
+        <v>609</v>
       </c>
       <c r="L153">
         <f t="shared" ca="1" si="52"/>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="M153" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198</v>
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="54"/>
@@ -13282,19 +13282,19 @@
       </c>
       <c r="H154" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234</v>
       </c>
       <c r="I154">
         <f t="shared" ca="1" si="49"/>
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="J154">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="51"/>
-        <v>509</v>
+        <v>613</v>
       </c>
       <c r="L154">
         <f t="shared" ca="1" si="52"/>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="M154" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234</v>
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="54"/>
@@ -13364,19 +13364,19 @@
       </c>
       <c r="H155" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273</v>
       </c>
       <c r="I155">
         <f t="shared" ca="1" si="49"/>
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="J155">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="51"/>
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="L155">
         <f t="shared" ca="1" si="52"/>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="M155" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273</v>
       </c>
       <c r="N155">
         <f t="shared" ca="1" si="54"/>
@@ -13446,19 +13446,19 @@
       </c>
       <c r="H156" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315</v>
       </c>
       <c r="I156">
         <f t="shared" ca="1" si="49"/>
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="J156">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K156">
         <f t="shared" ca="1" si="51"/>
-        <v>515</v>
+        <v>621</v>
       </c>
       <c r="L156">
         <f t="shared" ca="1" si="52"/>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="M156" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315</v>
       </c>
       <c r="N156">
         <f t="shared" ca="1" si="54"/>
@@ -13528,19 +13528,19 @@
       </c>
       <c r="H157" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360</v>
       </c>
       <c r="I157">
         <f t="shared" ca="1" si="49"/>
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="J157">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K157">
         <f t="shared" ca="1" si="51"/>
-        <v>518</v>
+        <v>625</v>
       </c>
       <c r="L157">
         <f t="shared" ca="1" si="52"/>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="M157" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360</v>
       </c>
       <c r="N157">
         <f t="shared" ca="1" si="54"/>
@@ -13610,19 +13610,19 @@
       </c>
       <c r="H158" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408</v>
       </c>
       <c r="I158">
         <f t="shared" ca="1" si="49"/>
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="J158">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K158">
         <f t="shared" ca="1" si="51"/>
-        <v>521</v>
+        <v>629</v>
       </c>
       <c r="L158">
         <f t="shared" ca="1" si="52"/>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="M158" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408</v>
       </c>
       <c r="N158">
         <f t="shared" ca="1" si="54"/>
@@ -13692,19 +13692,19 @@
       </c>
       <c r="H159" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459</v>
       </c>
       <c r="I159">
         <f t="shared" ca="1" si="49"/>
-        <v>51</v>
+        <v>459</v>
       </c>
       <c r="J159">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K159">
         <f t="shared" ca="1" si="51"/>
-        <v>524</v>
+        <v>633</v>
       </c>
       <c r="L159">
         <f t="shared" ca="1" si="52"/>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="M159" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459</v>
       </c>
       <c r="N159">
         <f t="shared" ca="1" si="54"/>
@@ -13774,19 +13774,19 @@
       </c>
       <c r="H160" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513</v>
       </c>
       <c r="I160">
         <f t="shared" ca="1" si="49"/>
-        <v>54</v>
+        <v>513</v>
       </c>
       <c r="J160">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K160">
         <f t="shared" ca="1" si="51"/>
-        <v>527</v>
+        <v>637</v>
       </c>
       <c r="L160">
         <f t="shared" ca="1" si="52"/>
@@ -13794,7 +13794,7 @@
       </c>
       <c r="M160" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513</v>
       </c>
       <c r="N160">
         <f t="shared" ca="1" si="54"/>
@@ -13856,19 +13856,19 @@
       </c>
       <c r="H161" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570]</v>
       </c>
       <c r="I161" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>57]</v>
+        <v>570]</v>
       </c>
       <c r="J161">
         <f t="shared" ca="1" si="50"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K161">
         <f t="shared" ca="1" si="51"/>
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="L161">
         <f t="shared" ca="1" si="52"/>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="M161" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570]</v>
       </c>
       <c r="N161">
         <f t="shared" ca="1" si="54"/>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="H162" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0</v>
       </c>
       <c r="I162" t="str">
         <f t="shared" ca="1" si="49"/>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="K162">
         <f t="shared" ca="1" si="51"/>
-        <v>540</v>
+        <v>651</v>
       </c>
       <c r="L162">
         <f t="shared" ca="1" si="52"/>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="M162" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0</v>
       </c>
       <c r="N162">
         <f t="shared" ca="1" si="54"/>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="H163" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2</v>
       </c>
       <c r="I163">
         <f t="shared" ca="1" si="49"/>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="K163">
         <f t="shared" ca="1" si="51"/>
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="L163">
         <f t="shared" ca="1" si="52"/>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="M163" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2</v>
       </c>
       <c r="N163">
         <f t="shared" ca="1" si="54"/>
@@ -14100,11 +14100,11 @@
       </c>
       <c r="H164" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6</v>
       </c>
       <c r="I164">
         <f t="shared" ca="1" si="49"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J164">
         <f t="shared" ca="1" si="50"/>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="K164">
         <f t="shared" ca="1" si="51"/>
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="L164">
         <f t="shared" ca="1" si="52"/>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="M164" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6</v>
       </c>
       <c r="N164">
         <f t="shared" ca="1" si="54"/>
@@ -14182,19 +14182,19 @@
       </c>
       <c r="H165" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12</v>
       </c>
       <c r="I165">
         <f t="shared" ca="1" si="49"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J165">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K165">
         <f t="shared" ca="1" si="51"/>
-        <v>546</v>
+        <v>658</v>
       </c>
       <c r="L165">
         <f t="shared" ca="1" si="52"/>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="M165" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12</v>
       </c>
       <c r="N165">
         <f t="shared" ca="1" si="54"/>
@@ -14264,19 +14264,19 @@
       </c>
       <c r="H166" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20</v>
       </c>
       <c r="I166">
         <f t="shared" ca="1" si="49"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J166">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K166">
         <f t="shared" ca="1" si="51"/>
-        <v>548</v>
+        <v>661</v>
       </c>
       <c r="L166">
         <f t="shared" ca="1" si="52"/>
@@ -14284,7 +14284,7 @@
       </c>
       <c r="M166" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20</v>
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="54"/>
@@ -14346,11 +14346,11 @@
       </c>
       <c r="H167" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30</v>
       </c>
       <c r="I167">
         <f t="shared" ca="1" si="49"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J167">
         <f t="shared" ca="1" si="50"/>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="K167">
         <f t="shared" ca="1" si="51"/>
-        <v>551</v>
+        <v>664</v>
       </c>
       <c r="L167">
         <f t="shared" ca="1" si="52"/>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="M167" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30</v>
       </c>
       <c r="N167">
         <f t="shared" ca="1" si="54"/>
@@ -14428,11 +14428,11 @@
       </c>
       <c r="H168" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42</v>
       </c>
       <c r="I168">
         <f t="shared" ca="1" si="49"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J168">
         <f t="shared" ca="1" si="50"/>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="K168">
         <f t="shared" ca="1" si="51"/>
-        <v>554</v>
+        <v>667</v>
       </c>
       <c r="L168">
         <f t="shared" ca="1" si="52"/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="M168" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42</v>
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="54"/>
@@ -14510,11 +14510,11 @@
       </c>
       <c r="H169" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56</v>
       </c>
       <c r="I169">
         <f t="shared" ca="1" si="49"/>
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J169">
         <f t="shared" ca="1" si="50"/>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="K169">
         <f t="shared" ca="1" si="51"/>
-        <v>557</v>
+        <v>670</v>
       </c>
       <c r="L169">
         <f t="shared" ca="1" si="52"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="M169" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56</v>
       </c>
       <c r="N169">
         <f t="shared" ca="1" si="54"/>
@@ -14592,11 +14592,11 @@
       </c>
       <c r="H170" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72</v>
       </c>
       <c r="I170">
         <f t="shared" ca="1" si="49"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J170">
         <f t="shared" ca="1" si="50"/>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="K170">
         <f t="shared" ca="1" si="51"/>
-        <v>560</v>
+        <v>673</v>
       </c>
       <c r="L170">
         <f t="shared" ca="1" si="52"/>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="M170" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72</v>
       </c>
       <c r="N170">
         <f t="shared" ca="1" si="54"/>
@@ -14674,11 +14674,11 @@
       </c>
       <c r="H171" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90</v>
       </c>
       <c r="I171">
         <f t="shared" ca="1" si="49"/>
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="J171">
         <f t="shared" ca="1" si="50"/>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="K171">
         <f t="shared" ca="1" si="51"/>
-        <v>563</v>
+        <v>676</v>
       </c>
       <c r="L171">
         <f t="shared" ca="1" si="52"/>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="M171" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90</v>
       </c>
       <c r="N171">
         <f t="shared" ca="1" si="54"/>
@@ -14756,19 +14756,19 @@
       </c>
       <c r="H172" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110</v>
       </c>
       <c r="I172">
         <f t="shared" ca="1" si="49"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="J172">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K172">
         <f t="shared" ca="1" si="51"/>
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="L172">
         <f t="shared" ca="1" si="52"/>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="M172" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110</v>
       </c>
       <c r="N172">
         <f t="shared" ca="1" si="54"/>
@@ -14838,19 +14838,19 @@
       </c>
       <c r="H173" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132</v>
       </c>
       <c r="I173">
         <f t="shared" ca="1" si="49"/>
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="J173">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K173">
         <f t="shared" ca="1" si="51"/>
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="L173">
         <f t="shared" ca="1" si="52"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="M173" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132</v>
       </c>
       <c r="N173">
         <f t="shared" ca="1" si="54"/>
@@ -14920,19 +14920,19 @@
       </c>
       <c r="H174" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156</v>
       </c>
       <c r="I174">
         <f t="shared" ca="1" si="49"/>
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="J174">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K174">
         <f t="shared" ca="1" si="51"/>
-        <v>572</v>
+        <v>688</v>
       </c>
       <c r="L174">
         <f t="shared" ca="1" si="52"/>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="M174" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156</v>
       </c>
       <c r="N174">
         <f t="shared" ca="1" si="54"/>
@@ -15002,19 +15002,19 @@
       </c>
       <c r="H175" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182</v>
       </c>
       <c r="I175">
         <f t="shared" ca="1" si="49"/>
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="J175">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K175">
         <f t="shared" ca="1" si="51"/>
-        <v>575</v>
+        <v>692</v>
       </c>
       <c r="L175">
         <f t="shared" ca="1" si="52"/>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="M175" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182</v>
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="54"/>
@@ -15084,19 +15084,19 @@
       </c>
       <c r="H176" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210</v>
       </c>
       <c r="I176">
         <f t="shared" ca="1" si="49"/>
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="J176">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K176">
         <f t="shared" ca="1" si="51"/>
-        <v>578</v>
+        <v>696</v>
       </c>
       <c r="L176">
         <f t="shared" ca="1" si="52"/>
@@ -15104,7 +15104,7 @@
       </c>
       <c r="M176" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210</v>
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="54"/>
@@ -15166,19 +15166,19 @@
       </c>
       <c r="H177" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240</v>
       </c>
       <c r="I177">
         <f t="shared" ca="1" si="49"/>
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="J177">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K177">
         <f t="shared" ca="1" si="51"/>
-        <v>581</v>
+        <v>700</v>
       </c>
       <c r="L177">
         <f t="shared" ca="1" si="52"/>
@@ -15186,7 +15186,7 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240</v>
       </c>
       <c r="N177">
         <f t="shared" ca="1" si="54"/>
@@ -15248,19 +15248,19 @@
       </c>
       <c r="H178" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272</v>
       </c>
       <c r="I178">
         <f t="shared" ca="1" si="49"/>
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="J178">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K178">
         <f t="shared" ca="1" si="51"/>
-        <v>584</v>
+        <v>704</v>
       </c>
       <c r="L178">
         <f t="shared" ca="1" si="52"/>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272</v>
       </c>
       <c r="N178">
         <f t="shared" ca="1" si="54"/>
@@ -15330,19 +15330,19 @@
       </c>
       <c r="H179" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306</v>
       </c>
       <c r="I179">
         <f t="shared" ca="1" si="49"/>
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="J179">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K179">
         <f t="shared" ca="1" si="51"/>
-        <v>587</v>
+        <v>708</v>
       </c>
       <c r="L179">
         <f t="shared" ca="1" si="52"/>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306</v>
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="54"/>
@@ -15412,19 +15412,19 @@
       </c>
       <c r="H180" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342</v>
       </c>
       <c r="I180">
         <f t="shared" ca="1" si="49"/>
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="J180">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K180">
         <f t="shared" ca="1" si="51"/>
-        <v>590</v>
+        <v>712</v>
       </c>
       <c r="L180">
         <f t="shared" ca="1" si="52"/>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342</v>
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="54"/>
@@ -15494,19 +15494,19 @@
       </c>
       <c r="H181" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380]</v>
       </c>
       <c r="I181" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>38]</v>
+        <v>380]</v>
       </c>
       <c r="J181">
         <f t="shared" ca="1" si="50"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K181">
         <f t="shared" ca="1" si="51"/>
-        <v>594</v>
+        <v>717</v>
       </c>
       <c r="L181">
         <f t="shared" ca="1" si="52"/>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380]</v>
       </c>
       <c r="N181">
         <f t="shared" ca="1" si="54"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="H182" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0</v>
       </c>
       <c r="I182" t="str">
         <f t="shared" ca="1" si="49"/>
@@ -15586,7 +15586,7 @@
       </c>
       <c r="K182">
         <f t="shared" ca="1" si="51"/>
-        <v>603</v>
+        <v>726</v>
       </c>
       <c r="L182">
         <f t="shared" ca="1" si="52"/>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="M182" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0</v>
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="54"/>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="H183" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1</v>
       </c>
       <c r="I183">
         <f t="shared" ca="1" si="49"/>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="K183">
         <f t="shared" ca="1" si="51"/>
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="L183">
         <f t="shared" ca="1" si="52"/>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="M183" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1</v>
       </c>
       <c r="N183">
         <f t="shared" ca="1" si="54"/>
@@ -15738,11 +15738,11 @@
       </c>
       <c r="H184" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3</v>
       </c>
       <c r="I184">
         <f t="shared" ca="1" si="49"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J184">
         <f t="shared" ca="1" si="50"/>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="K184">
         <f t="shared" ca="1" si="51"/>
-        <v>607</v>
+        <v>730</v>
       </c>
       <c r="L184">
         <f t="shared" ca="1" si="52"/>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="M184" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3</v>
       </c>
       <c r="N184">
         <f t="shared" ca="1" si="54"/>
@@ -15820,11 +15820,11 @@
       </c>
       <c r="H185" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6</v>
       </c>
       <c r="I185">
         <f t="shared" ca="1" si="49"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J185">
         <f t="shared" ca="1" si="50"/>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="K185">
         <f t="shared" ca="1" si="51"/>
-        <v>609</v>
+        <v>732</v>
       </c>
       <c r="L185">
         <f t="shared" ca="1" si="52"/>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="M185" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6</v>
       </c>
       <c r="N185">
         <f t="shared" ca="1" si="54"/>
@@ -15902,19 +15902,19 @@
       </c>
       <c r="H186" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10</v>
       </c>
       <c r="I186">
         <f t="shared" ca="1" si="49"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J186">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186">
         <f t="shared" ca="1" si="51"/>
-        <v>611</v>
+        <v>735</v>
       </c>
       <c r="L186">
         <f t="shared" ca="1" si="52"/>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="M186" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10</v>
       </c>
       <c r="N186">
         <f t="shared" ca="1" si="54"/>
@@ -15984,19 +15984,19 @@
       </c>
       <c r="H187" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15</v>
       </c>
       <c r="I187">
         <f t="shared" ca="1" si="49"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J187">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K187">
         <f t="shared" ca="1" si="51"/>
-        <v>613</v>
+        <v>738</v>
       </c>
       <c r="L187">
         <f t="shared" ca="1" si="52"/>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="M187" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15</v>
       </c>
       <c r="N187">
         <f t="shared" ca="1" si="54"/>
@@ -16066,19 +16066,19 @@
       </c>
       <c r="H188" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21</v>
       </c>
       <c r="I188">
         <f t="shared" ca="1" si="49"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J188">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K188">
         <f t="shared" ca="1" si="51"/>
-        <v>615</v>
+        <v>741</v>
       </c>
       <c r="L188">
         <f t="shared" ca="1" si="52"/>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="M188" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21</v>
       </c>
       <c r="N188">
         <f t="shared" ca="1" si="54"/>
@@ -16148,19 +16148,19 @@
       </c>
       <c r="H189" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28</v>
       </c>
       <c r="I189">
         <f t="shared" ca="1" si="49"/>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J189">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189">
         <f t="shared" ca="1" si="51"/>
-        <v>617</v>
+        <v>744</v>
       </c>
       <c r="L189">
         <f t="shared" ca="1" si="52"/>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="M189" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28</v>
       </c>
       <c r="N189">
         <f t="shared" ca="1" si="54"/>
@@ -16230,19 +16230,19 @@
       </c>
       <c r="H190" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36</v>
       </c>
       <c r="I190">
         <f t="shared" ca="1" si="49"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J190">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="51"/>
-        <v>619</v>
+        <v>747</v>
       </c>
       <c r="L190">
         <f t="shared" ca="1" si="52"/>
@@ -16250,7 +16250,7 @@
       </c>
       <c r="M190" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36</v>
       </c>
       <c r="N190">
         <f t="shared" ca="1" si="54"/>
@@ -16312,19 +16312,19 @@
       </c>
       <c r="H191" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45</v>
       </c>
       <c r="I191">
         <f t="shared" ca="1" si="49"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J191">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="51"/>
-        <v>621</v>
+        <v>750</v>
       </c>
       <c r="L191">
         <f t="shared" ca="1" si="52"/>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="M191" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45</v>
       </c>
       <c r="N191">
         <f t="shared" ca="1" si="54"/>
@@ -16394,11 +16394,11 @@
       </c>
       <c r="H192" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55</v>
       </c>
       <c r="I192">
         <f t="shared" ca="1" si="49"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <f t="shared" ca="1" si="50"/>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="51"/>
-        <v>624</v>
+        <v>753</v>
       </c>
       <c r="L192">
         <f t="shared" ca="1" si="52"/>
@@ -16414,7 +16414,7 @@
       </c>
       <c r="M192" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55</v>
       </c>
       <c r="N192">
         <f t="shared" ca="1" si="54"/>
@@ -16476,11 +16476,11 @@
       </c>
       <c r="H193" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66</v>
       </c>
       <c r="I193">
         <f t="shared" ca="1" si="49"/>
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J193">
         <f t="shared" ca="1" si="50"/>
@@ -16488,7 +16488,7 @@
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="51"/>
-        <v>627</v>
+        <v>756</v>
       </c>
       <c r="L193">
         <f t="shared" ca="1" si="52"/>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="M193" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66</v>
       </c>
       <c r="N193">
         <f t="shared" ca="1" si="54"/>
@@ -16558,11 +16558,11 @@
       </c>
       <c r="H194" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78</v>
       </c>
       <c r="I194">
         <f t="shared" ca="1" si="49"/>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="J194">
         <f t="shared" ca="1" si="50"/>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="51"/>
-        <v>630</v>
+        <v>759</v>
       </c>
       <c r="L194">
         <f t="shared" ca="1" si="52"/>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="M194" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78</v>
       </c>
       <c r="N194">
         <f t="shared" ca="1" si="54"/>
@@ -16640,13 +16640,13 @@
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H201" ca="1" si="69">IF(ROW()=2,I195,OFFSET(H195,-1,0)&amp;IF(LEN(I195)=0,"",","&amp;I195))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I201" ca="1" si="70">IF(C195&lt;OFFSET(C195,-1,0),""""&amp;A195&amp;"_"&amp;B195&amp;""":["&amp;E195,
-IF(C195&gt;OFFSET(C195,1,0),E195&amp;"]",
-E195))</f>
-        <v>13</v>
+        <f t="shared" ref="I195:I201" ca="1" si="70">IF(C195&lt;OFFSET(C195,-1,0),""""&amp;A195&amp;"_"&amp;B195&amp;""":["&amp;F195,
+IF(C195&gt;OFFSET(C195,1,0),F195&amp;"]",
+F195))</f>
+        <v>91</v>
       </c>
       <c r="J195">
         <f t="shared" ref="J195:J201" ca="1" si="71">LEN(I195)</f>
@@ -16655,7 +16655,7 @@
       <c r="K195">
         <f t="shared" ref="K195:K201" ca="1" si="72">IF(ROW()=2,J195,
 IF(OFFSET(K195,-1,0)+J195+1&gt;32767,J195+1,OFFSET(K195,-1,0)+J195+1))</f>
-        <v>633</v>
+        <v>762</v>
       </c>
       <c r="L195">
         <f t="shared" ref="L195:L201" ca="1" si="73">IF(ROW()=2,N195,OFFSET(L195,-1,0)+N195)</f>
@@ -16664,7 +16664,7 @@
       <c r="M195" t="str">
         <f t="shared" ref="M195:M201" ca="1" si="74">IF(ROW()=2,I195,
 IF(OFFSET(K195,-1,0)+J195+1&gt;32767,","&amp;I195,OFFSET(M195,-1,0)&amp;IF(LEN(I195)=0,"",","&amp;I195)))</f>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N201" ca="1" si="75">IF(K195&gt;OFFSET(K195,1,0),1,0)</f>
@@ -16729,19 +16729,19 @@
       </c>
       <c r="H196" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105</v>
       </c>
       <c r="I196">
         <f t="shared" ca="1" si="70"/>
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J196">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K196">
         <f t="shared" ca="1" si="72"/>
-        <v>636</v>
+        <v>766</v>
       </c>
       <c r="L196">
         <f t="shared" ca="1" si="73"/>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="M196" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105</v>
       </c>
       <c r="N196">
         <f t="shared" ca="1" si="75"/>
@@ -16811,19 +16811,19 @@
       </c>
       <c r="H197" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120</v>
       </c>
       <c r="I197">
         <f t="shared" ca="1" si="70"/>
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="J197">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K197">
         <f t="shared" ca="1" si="72"/>
-        <v>639</v>
+        <v>770</v>
       </c>
       <c r="L197">
         <f t="shared" ca="1" si="73"/>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="M197" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120</v>
       </c>
       <c r="N197">
         <f t="shared" ca="1" si="75"/>
@@ -16893,19 +16893,19 @@
       </c>
       <c r="H198" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136</v>
       </c>
       <c r="I198">
         <f t="shared" ca="1" si="70"/>
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="J198">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="72"/>
-        <v>642</v>
+        <v>774</v>
       </c>
       <c r="L198">
         <f t="shared" ca="1" si="73"/>
@@ -16913,7 +16913,7 @@
       </c>
       <c r="M198" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136</v>
       </c>
       <c r="N198">
         <f t="shared" ca="1" si="75"/>
@@ -16976,19 +16976,19 @@
       </c>
       <c r="H199" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153</v>
       </c>
       <c r="I199">
         <f t="shared" ca="1" si="70"/>
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="J199">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K199">
         <f t="shared" ca="1" si="72"/>
-        <v>645</v>
+        <v>778</v>
       </c>
       <c r="L199">
         <f t="shared" ca="1" si="73"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="M199" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153</v>
       </c>
       <c r="N199">
         <f t="shared" ca="1" si="75"/>
@@ -17058,19 +17058,19 @@
       </c>
       <c r="H200" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171</v>
       </c>
       <c r="I200">
         <f t="shared" ca="1" si="70"/>
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="J200">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="72"/>
-        <v>648</v>
+        <v>782</v>
       </c>
       <c r="L200">
         <f t="shared" ca="1" si="73"/>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="M200" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171</v>
       </c>
       <c r="N200">
         <f t="shared" ca="1" si="75"/>
@@ -17140,19 +17140,19 @@
       </c>
       <c r="H201" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171,190]</v>
       </c>
       <c r="I201" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>19]</v>
+        <v>190]</v>
       </c>
       <c r="J201">
         <f t="shared" ca="1" si="71"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="72"/>
-        <v>652</v>
+        <v>787</v>
       </c>
       <c r="L201">
         <f t="shared" ca="1" si="73"/>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="M201" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>"0_1":[0,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95,100,105],"0_2":[0,14,18,22,26,30,34,38,42,46,50,54,58,62,66,70,74,78,82,86],"0_3":[0,13,16,19,22,25,28,31,34,37,40,43,46,49,52,55,58,61,64,67],"0_4":[0,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48],"0_5":[0,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29],"1_1":[0,5,10,15,20,25,30,35,40,45,50,55,60,65,70,75,80,85,90,95],"1_2":[0,4,8,12,16,20,24,28,32,36,40,44,48,52,56,60,64,68,72,76],"1_3":[0,3,6,9,12,15,18,21,24,27,30,33,36,39,42,45,48,51,54,57],"1_4":[0,2,4,6,8,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38],"1_5":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19]</v>
+        <v>"0_1":[0,15,35,60,90,125,165,210,260,315,375,440,510,585,665,750,840,935,1035,1140],"0_2":[0,14,32,54,80,110,144,182,224,270,320,374,432,494,560,630,704,782,864,950],"0_3":[0,13,29,48,70,95,123,154,188,225,265,308,354,403,455,510,568,629,693,760],"0_4":[0,12,26,42,60,80,102,126,152,180,210,242,276,312,350,390,432,476,522,570],"0_5":[0,11,23,36,50,65,81,98,116,135,155,176,198,221,245,270,296,323,351,380],"1_1":[0,5,15,30,50,75,105,140,180,225,275,330,390,455,525,600,680,765,855,950],"1_2":[0,4,12,24,40,60,84,112,144,180,220,264,312,364,420,480,544,612,684,760],"1_3":[0,3,9,18,30,45,63,84,108,135,165,198,234,273,315,360,408,459,513,570],"1_4":[0,2,6,12,20,30,42,56,72,90,110,132,156,182,210,240,272,306,342,380],"1_5":[0,1,3,6,10,15,21,28,36,45,55,66,78,91,105,120,136,153,171,190]</v>
       </c>
       <c r="N201">
         <f t="shared" ca="1" si="75"/>
@@ -17198,6 +17198,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17205,11 +17206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929AA82-B9E8-461D-A49D-4486D17AB555}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -17275,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>C2</f>
+        <f>D2</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -17290,7 +17291,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"]"</f>
-        <v>[0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198,200,202,204,206]</v>
+        <v>[0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880,10080,10282,10486,10692]</v>
       </c>
       <c r="M2" t="str">
         <f ca="1">"["&amp;
@@ -17321,7 +17322,7 @@
         <v>0,10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">C3</f>
+        <f t="shared" ref="G3:G66" si="1">D3</f>
         <v>10</v>
       </c>
       <c r="H3" t="str">
@@ -17355,11 +17356,11 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12</v>
+        <v>0,10,22</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17392,11 +17393,11 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14</v>
+        <v>0,10,22,36</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17429,11 +17430,11 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16</v>
+        <v>0,10,22,36,52</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17466,11 +17467,11 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18</v>
+        <v>0,10,22,36,52,70</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17503,11 +17504,11 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20</v>
+        <v>0,10,22,36,52,70,90</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17540,11 +17541,11 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22</v>
+        <v>0,10,22,36,52,70,90,112</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17577,11 +17578,11 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24</v>
+        <v>0,10,22,36,52,70,90,112,136</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17614,11 +17615,11 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26</v>
+        <v>0,10,22,36,52,70,90,112,136,162</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17651,11 +17652,11 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17688,11 +17689,11 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17725,11 +17726,11 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17762,11 +17763,11 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17799,11 +17800,11 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17836,11 +17837,11 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17873,11 +17874,11 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17910,11 +17911,11 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17947,11 +17948,11 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -17984,11 +17985,11 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>532</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18021,11 +18022,11 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>580</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18058,11 +18059,11 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>630</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18095,11 +18096,11 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>682</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18132,11 +18133,11 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>736</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18169,11 +18170,11 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>792</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18206,11 +18207,11 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>850</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18243,11 +18244,11 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>910</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18280,11 +18281,11 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>972</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18317,11 +18318,11 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>1036</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18354,11 +18355,11 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>1102</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18391,11 +18392,11 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>1170</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18428,11 +18429,11 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>1240</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18465,11 +18466,11 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>1312</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18502,11 +18503,11 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>1386</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18539,11 +18540,11 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>1462</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18576,11 +18577,11 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>1540</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18613,11 +18614,11 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>1620</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18650,11 +18651,11 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>1702</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18687,11 +18688,11 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>1786</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18724,11 +18725,11 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>1872</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18761,11 +18762,11 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>1960</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18798,11 +18799,11 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>2050</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18835,11 +18836,11 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>2142</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18872,11 +18873,11 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>2236</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18909,11 +18910,11 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>2332</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18946,11 +18947,11 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>2430</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -18983,11 +18984,11 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2530</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19020,11 +19021,11 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>2632</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19057,11 +19058,11 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>2736</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19094,11 +19095,11 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>2842</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19131,11 +19132,11 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>2950</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19168,11 +19169,11 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>3060</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19205,11 +19206,11 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>3172</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19242,11 +19243,11 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>3286</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19279,11 +19280,11 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>3402</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19316,11 +19317,11 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>3520</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19353,11 +19354,11 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>3640</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19390,11 +19391,11 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>3762</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19427,11 +19428,11 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>3886</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19464,11 +19465,11 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>4012</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19501,11 +19502,11 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>4140</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19538,11 +19539,11 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>4270</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19575,11 +19576,11 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>4402</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19612,11 +19613,11 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>4536</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19649,11 +19650,11 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>4672</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19686,11 +19687,11 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:H101" ca="1" si="9">IF(ROW()=2,G67,OFFSET(F67,-1,0)&amp;IF(LEN(G67)=0,"",","&amp;G67))</f>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" si="10">C67</f>
-        <v>138</v>
+        <f t="shared" ref="G67:G101" si="10">D67</f>
+        <v>4810</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19723,11 +19724,11 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950</v>
       </c>
       <c r="G68">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>4950</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19760,11 +19761,11 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092</v>
       </c>
       <c r="G69">
         <f t="shared" si="10"/>
-        <v>142</v>
+        <v>5092</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19797,11 +19798,11 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236</v>
       </c>
       <c r="G70">
         <f t="shared" si="10"/>
-        <v>144</v>
+        <v>5236</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19834,11 +19835,11 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382</v>
       </c>
       <c r="G71">
         <f t="shared" si="10"/>
-        <v>146</v>
+        <v>5382</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19871,11 +19872,11 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530</v>
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>148</v>
+        <v>5530</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19908,11 +19909,11 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680</v>
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>150</v>
+        <v>5680</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19945,11 +19946,11 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832</v>
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>152</v>
+        <v>5832</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19982,11 +19983,11 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986</v>
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>154</v>
+        <v>5986</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20019,11 +20020,11 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142</v>
       </c>
       <c r="G76">
         <f t="shared" si="10"/>
-        <v>156</v>
+        <v>6142</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20056,11 +20057,11 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300</v>
       </c>
       <c r="G77">
         <f t="shared" si="10"/>
-        <v>158</v>
+        <v>6300</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20093,11 +20094,11 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460</v>
       </c>
       <c r="G78">
         <f t="shared" si="10"/>
-        <v>160</v>
+        <v>6460</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20130,11 +20131,11 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622</v>
       </c>
       <c r="G79">
         <f t="shared" si="10"/>
-        <v>162</v>
+        <v>6622</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20167,11 +20168,11 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786</v>
       </c>
       <c r="G80">
         <f t="shared" si="10"/>
-        <v>164</v>
+        <v>6786</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20204,11 +20205,11 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952</v>
       </c>
       <c r="G81">
         <f t="shared" si="10"/>
-        <v>166</v>
+        <v>6952</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20241,11 +20242,11 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120</v>
       </c>
       <c r="G82">
         <f t="shared" si="10"/>
-        <v>168</v>
+        <v>7120</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20278,11 +20279,11 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290</v>
       </c>
       <c r="G83">
         <f t="shared" si="10"/>
-        <v>170</v>
+        <v>7290</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20315,11 +20316,11 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462</v>
       </c>
       <c r="G84">
         <f t="shared" si="10"/>
-        <v>172</v>
+        <v>7462</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20352,11 +20353,11 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636</v>
       </c>
       <c r="G85">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>7636</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20389,11 +20390,11 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812</v>
       </c>
       <c r="G86">
         <f t="shared" si="10"/>
-        <v>176</v>
+        <v>7812</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20426,11 +20427,11 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990</v>
       </c>
       <c r="G87">
         <f t="shared" si="10"/>
-        <v>178</v>
+        <v>7990</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20463,11 +20464,11 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170</v>
       </c>
       <c r="G88">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>8170</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20500,11 +20501,11 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352</v>
       </c>
       <c r="G89">
         <f t="shared" si="10"/>
-        <v>182</v>
+        <v>8352</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20537,11 +20538,11 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536</v>
       </c>
       <c r="G90">
         <f t="shared" si="10"/>
-        <v>184</v>
+        <v>8536</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20574,11 +20575,11 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722</v>
       </c>
       <c r="G91">
         <f t="shared" si="10"/>
-        <v>186</v>
+        <v>8722</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20611,11 +20612,11 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910</v>
       </c>
       <c r="G92">
         <f t="shared" si="10"/>
-        <v>188</v>
+        <v>8910</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20648,11 +20649,11 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100</v>
       </c>
       <c r="G93">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>9100</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20685,11 +20686,11 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292</v>
       </c>
       <c r="G94">
         <f t="shared" si="10"/>
-        <v>192</v>
+        <v>9292</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20722,11 +20723,11 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486</v>
       </c>
       <c r="G95">
         <f t="shared" si="10"/>
-        <v>194</v>
+        <v>9486</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20759,11 +20760,11 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682</v>
       </c>
       <c r="G96">
         <f t="shared" si="10"/>
-        <v>196</v>
+        <v>9682</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20796,11 +20797,11 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880</v>
       </c>
       <c r="G97">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>9880</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20833,11 +20834,11 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198,200</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880,10080</v>
       </c>
       <c r="G98">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>10080</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20870,11 +20871,11 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198,200,202</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880,10080,10282</v>
       </c>
       <c r="G99">
         <f t="shared" si="10"/>
-        <v>202</v>
+        <v>10282</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20907,11 +20908,11 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198,200,202,204</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880,10080,10282,10486</v>
       </c>
       <c r="G100">
         <f t="shared" si="10"/>
-        <v>204</v>
+        <v>10486</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -20944,11 +20945,11 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0,10,12,14,16,18,20,22,24,26,28,30,32,34,36,38,40,42,44,46,48,50,52,54,56,58,60,62,64,66,68,70,72,74,76,78,80,82,84,86,88,90,92,94,96,98,100,102,104,106,108,110,112,114,116,118,120,122,124,126,128,130,132,134,136,138,140,142,144,146,148,150,152,154,156,158,160,162,164,166,168,170,172,174,176,178,180,182,184,186,188,190,192,194,196,198,200,202,204,206</v>
+        <v>0,10,22,36,52,70,90,112,136,162,190,220,252,286,322,360,400,442,486,532,580,630,682,736,792,850,910,972,1036,1102,1170,1240,1312,1386,1462,1540,1620,1702,1786,1872,1960,2050,2142,2236,2332,2430,2530,2632,2736,2842,2950,3060,3172,3286,3402,3520,3640,3762,3886,4012,4140,4270,4402,4536,4672,4810,4950,5092,5236,5382,5530,5680,5832,5986,6142,6300,6460,6622,6786,6952,7120,7290,7462,7636,7812,7990,8170,8352,8536,8722,8910,9100,9292,9486,9682,9880,10080,10282,10486,10692</v>
       </c>
       <c r="G101">
         <f t="shared" si="10"/>
-        <v>206</v>
+        <v>10692</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="9"/>
